--- a/biology/Médecine/Jean_Knoeri/Jean_Knoeri.xlsx
+++ b/biology/Médecine/Jean_Knoeri/Jean_Knoeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Knoeri est un médecin français, né à Wintzenheim le 27 novembre 1857 et mort à Reims le 8 novembre 1925. Il s’est impliqué dans la vie politique de Reims en étant conseiller municipal, puis adjoint au maire et conseiller général de la Marne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Knoeri est un médecin français, né à Wintzenheim le 27 novembre 1857 et mort à Reims le 8 novembre 1925. Il s’est impliqué dans la vie politique de Reims en étant conseiller municipal, puis adjoint au maire et conseiller général de la Marne.
 </t>
         </is>
       </c>
@@ -511,17 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Knoeri, est né à Wintzenheim dans le Haut-Rhin le 27 novembre 1857, et décédé le 8 novembre 1925 à Reims.
-Il a fait partie de la loge maçonnique La Sincérité de Reims[2].
+Il a fait partie de la loge maçonnique La Sincérité de Reims.
 Il est mort célibataire.
-Médecin
-Jean Knoeri, devient docteur en médecine de la Faculté de Paris après avoir soutenu une thèse sur « la santé des ouvriers employés par l’industrie cotonnière » [3]. En 1886, il vint aussitôt exercer à Reims.Il était médecin au bureau de bienfaisance de 1892 à 1914.
-Politique
-De 1892 à 1896, il est élu conseiller municipal à Reims. Il est réélu après la guerre[Laquelle ?], en novembre 1900. Il est adjoint au maire Adrien Pozzi de 1904 à 1908[4].
-Il est conseiller général de la Marne en 1895.
-Il est président des comités radicaux-socialistes[5].
 </t>
         </is>
       </c>
@@ -547,13 +555,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Knoeri, devient docteur en médecine de la Faculté de Paris après avoir soutenu une thèse sur « la santé des ouvriers employés par l’industrie cotonnière » . En 1886, il vint aussitôt exercer à Reims.Il était médecin au bureau de bienfaisance de 1892 à 1914.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Knoeri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Knoeri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1892 à 1896, il est élu conseiller municipal à Reims. Il est réélu après la guerre[Laquelle ?], en novembre 1900. Il est adjoint au maire Adrien Pozzi de 1904 à 1908.
+Il est conseiller général de la Marne en 1895.
+Il est président des comités radicaux-socialistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Knoeri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Knoeri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1927, la place de Bétheny est renommée place du Docteur-Knoëri.
-Chevalier en 1908 puis Officier de la Légion d’honneur en 1925[4].
+Chevalier en 1908 puis Officier de la Légion d’honneur en 1925.
 </t>
         </is>
       </c>
